--- a/public/Import.xlsx
+++ b/public/Import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evari\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Laragon\www\isp\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D60ED7-4DF3-47E2-9574-729E9BF9028A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D373463-33EE-453F-B0A2-60C7590E66EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>nama_customer</t>
   </si>
@@ -65,9 +65,6 @@
     <t>61235</t>
   </si>
   <si>
-    <t>088123821732</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>Perum Tegalsari blok C no. 45 Surabaya</t>
   </si>
   <si>
-    <t>082122378902</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -110,9 +104,6 @@
     <t>Perum Tegalsari Indah blok A no. 32 Surabaya</t>
   </si>
   <si>
-    <t>085123718232</t>
-  </si>
-  <si>
     <t>2024-03-21</t>
   </si>
   <si>
@@ -153,6 +144,27 @@
   </si>
   <si>
     <t xml:space="preserve">Installed date = Tanggal Pasang di Customer </t>
+  </si>
+  <si>
+    <t>is_ppn</t>
+  </si>
+  <si>
+    <t>PPN</t>
+  </si>
+  <si>
+    <t>Dikenakan PPN</t>
+  </si>
+  <si>
+    <t>Tidak Kena PPN</t>
+  </si>
+  <si>
+    <t>085821364004</t>
+  </si>
+  <si>
+    <t>085173164004</t>
+  </si>
+  <si>
+    <t>085746763262</t>
   </si>
 </sst>
 </file>
@@ -175,7 +187,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,6 +209,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,28 +249,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -529,25 +551,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" customWidth="1"/>
-    <col min="4" max="4" width="25.5546875" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="23.44140625" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -579,10 +601,13 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -599,95 +624,104 @@
         <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>27</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -699,7 +733,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -711,7 +745,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -723,7 +757,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -735,7 +769,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -747,7 +781,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -771,102 +805,126 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F4B13E8-AC80-4F30-B7EA-43B39A8E4A75}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="11"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="12"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="5"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="B9" s="13"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="7"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="10"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="A13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="14"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
+    <row r="15" spans="1:2">
+      <c r="A15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>